--- a/Code/Results/Cases/Case_3_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.025463726331719</v>
+        <v>1.055670709443425</v>
       </c>
       <c r="D2">
-        <v>1.036404143816218</v>
+        <v>1.053671546631413</v>
       </c>
       <c r="E2">
-        <v>1.03630580455577</v>
+        <v>1.06207676806106</v>
       </c>
       <c r="F2">
-        <v>1.042908503063261</v>
+        <v>1.072863911865431</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052918594879069</v>
+        <v>1.0476245766062</v>
       </c>
       <c r="J2">
-        <v>1.046908609937937</v>
+        <v>1.060676354262662</v>
       </c>
       <c r="K2">
-        <v>1.047378579739444</v>
+        <v>1.05641687090043</v>
       </c>
       <c r="L2">
-        <v>1.047281493002096</v>
+        <v>1.06479909520496</v>
       </c>
       <c r="M2">
-        <v>1.053800748626582</v>
+        <v>1.07555729577011</v>
       </c>
       <c r="N2">
-        <v>1.048395340246145</v>
+        <v>1.062182636346994</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030971140074734</v>
+        <v>1.05681012801359</v>
       </c>
       <c r="D3">
-        <v>1.040451495910602</v>
+        <v>1.0545227286044</v>
       </c>
       <c r="E3">
-        <v>1.041091027180344</v>
+        <v>1.063118091947854</v>
       </c>
       <c r="F3">
-        <v>1.048277375609666</v>
+        <v>1.074049210258996</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054819856184346</v>
+        <v>1.047958903585364</v>
       </c>
       <c r="J3">
-        <v>1.050651687966155</v>
+        <v>1.061466626218856</v>
       </c>
       <c r="K3">
-        <v>1.050591687902554</v>
+        <v>1.057081046380133</v>
       </c>
       <c r="L3">
-        <v>1.051223809951745</v>
+        <v>1.065654594519054</v>
       </c>
       <c r="M3">
-        <v>1.058327668447778</v>
+        <v>1.076558512336093</v>
       </c>
       <c r="N3">
-        <v>1.0521437338745</v>
+        <v>1.062974030580011</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034452419997739</v>
+        <v>1.057547392649818</v>
       </c>
       <c r="D4">
-        <v>1.043012671558096</v>
+        <v>1.055073429135326</v>
       </c>
       <c r="E4">
-        <v>1.044121522581532</v>
+        <v>1.063792221206312</v>
       </c>
       <c r="F4">
-        <v>1.051678688597868</v>
+        <v>1.07481676695667</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05601257836308</v>
+        <v>1.048174054921558</v>
       </c>
       <c r="J4">
-        <v>1.053014081023246</v>
+        <v>1.061977399666062</v>
       </c>
       <c r="K4">
-        <v>1.052618273296361</v>
+        <v>1.057510097111296</v>
       </c>
       <c r="L4">
-        <v>1.05371507854616</v>
+        <v>1.066207876002596</v>
       </c>
       <c r="M4">
-        <v>1.061190977288439</v>
+        <v>1.077206375205758</v>
       </c>
       <c r="N4">
-        <v>1.054509481800702</v>
+        <v>1.063485529384098</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035897051988107</v>
+        <v>1.057857335932132</v>
       </c>
       <c r="D5">
-        <v>1.044076097640889</v>
+        <v>1.055304926578874</v>
       </c>
       <c r="E5">
-        <v>1.045380415477499</v>
+        <v>1.064075702780553</v>
       </c>
       <c r="F5">
-        <v>1.053091922413126</v>
+        <v>1.075139589414438</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056505305399418</v>
+        <v>1.048264222023593</v>
       </c>
       <c r="J5">
-        <v>1.05399349366154</v>
+        <v>1.062191989027066</v>
       </c>
       <c r="K5">
-        <v>1.053458134827819</v>
+        <v>1.057690298979042</v>
       </c>
       <c r="L5">
-        <v>1.054748672619927</v>
+        <v>1.066440407920984</v>
       </c>
       <c r="M5">
-        <v>1.062379559426911</v>
+        <v>1.077478739296345</v>
       </c>
       <c r="N5">
-        <v>1.055490285317283</v>
+        <v>1.063700423486609</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03613852693772</v>
+        <v>1.05790937663708</v>
       </c>
       <c r="D6">
-        <v>1.044253886913391</v>
+        <v>1.055343795016952</v>
       </c>
       <c r="E6">
-        <v>1.04559091999256</v>
+        <v>1.064123305145215</v>
       </c>
       <c r="F6">
-        <v>1.053328252954864</v>
+        <v>1.075193801045675</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056587534745467</v>
+        <v>1.048279344912993</v>
       </c>
       <c r="J6">
-        <v>1.054157150835183</v>
+        <v>1.062228011337181</v>
       </c>
       <c r="K6">
-        <v>1.053598453612229</v>
+        <v>1.057720545639356</v>
       </c>
       <c r="L6">
-        <v>1.054921427590274</v>
+        <v>1.066479447097504</v>
       </c>
       <c r="M6">
-        <v>1.062578256558558</v>
+        <v>1.077524470587224</v>
       </c>
       <c r="N6">
-        <v>1.055654174902884</v>
+        <v>1.063736496952536</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03447179644186</v>
+        <v>1.057551534136863</v>
       </c>
       <c r="D7">
-        <v>1.04302693266049</v>
+        <v>1.05507652248257</v>
       </c>
       <c r="E7">
-        <v>1.044138402589479</v>
+        <v>1.063796008795565</v>
       </c>
       <c r="F7">
-        <v>1.051697636898453</v>
+        <v>1.074821079969007</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056019195994214</v>
+        <v>1.048175260848752</v>
       </c>
       <c r="J7">
-        <v>1.053027221272541</v>
+        <v>1.061980267568482</v>
       </c>
       <c r="K7">
-        <v>1.052629542586361</v>
+        <v>1.057512505649412</v>
       </c>
       <c r="L7">
-        <v>1.053728942745142</v>
+        <v>1.066210983370756</v>
       </c>
       <c r="M7">
-        <v>1.061206917919219</v>
+        <v>1.077210014537538</v>
       </c>
       <c r="N7">
-        <v>1.054522640710659</v>
+        <v>1.063488401359269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027342553707336</v>
+        <v>1.0560557850124</v>
       </c>
       <c r="D8">
-        <v>1.037784247546547</v>
+        <v>1.053959222271627</v>
       </c>
       <c r="E8">
-        <v>1.037937028131703</v>
+        <v>1.062428621624176</v>
       </c>
       <c r="F8">
-        <v>1.044738445040678</v>
+        <v>1.073264367287067</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053569083721083</v>
+        <v>1.047737808487387</v>
       </c>
       <c r="J8">
-        <v>1.048186281305634</v>
+        <v>1.06094355177491</v>
       </c>
       <c r="K8">
-        <v>1.048475620649911</v>
+        <v>1.056641480302886</v>
       </c>
       <c r="L8">
-        <v>1.048626515504121</v>
+        <v>1.065088274154106</v>
       </c>
       <c r="M8">
-        <v>1.055344678625335</v>
+        <v>1.075895660033947</v>
       </c>
       <c r="N8">
-        <v>1.049674826053735</v>
+        <v>1.062450213310357</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01410914870788</v>
+        <v>1.053419925312523</v>
       </c>
       <c r="D9">
-        <v>1.028078362258981</v>
+        <v>1.051989852738183</v>
       </c>
       <c r="E9">
-        <v>1.026474154382686</v>
+        <v>1.060021571647389</v>
       </c>
       <c r="F9">
-        <v>1.03188357933222</v>
+        <v>1.07052573076899</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048950366179571</v>
+        <v>1.046957914514068</v>
       </c>
       <c r="J9">
-        <v>1.0391733288772</v>
+        <v>1.059112227481842</v>
       </c>
       <c r="K9">
-        <v>1.040731740581477</v>
+        <v>1.055101136901373</v>
       </c>
       <c r="L9">
-        <v>1.039151828325514</v>
+        <v>1.063107728976575</v>
       </c>
       <c r="M9">
-        <v>1.044479712333608</v>
+        <v>1.073579647139985</v>
       </c>
       <c r="N9">
-        <v>1.040649074199053</v>
+        <v>1.060616288326736</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004775624569499</v>
+        <v>1.051662519091652</v>
       </c>
       <c r="D10">
-        <v>1.021254965729419</v>
+        <v>1.050676572508103</v>
       </c>
       <c r="E10">
-        <v>1.01842581228891</v>
+        <v>1.058418504639545</v>
       </c>
       <c r="F10">
-        <v>1.022862801268375</v>
+        <v>1.068702955842046</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045647556300079</v>
+        <v>1.046431893839411</v>
       </c>
       <c r="J10">
-        <v>1.032801039914677</v>
+        <v>1.057888295968443</v>
       </c>
       <c r="K10">
-        <v>1.035250774660741</v>
+        <v>1.054070540128501</v>
       </c>
       <c r="L10">
-        <v>1.032470166003075</v>
+        <v>1.061785871377693</v>
       </c>
       <c r="M10">
-        <v>1.03683117626896</v>
+        <v>1.072035640361584</v>
       </c>
       <c r="N10">
-        <v>1.034267735855291</v>
+        <v>1.059390618690201</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000597881517487</v>
+        <v>1.05090148921532</v>
       </c>
       <c r="D11">
-        <v>1.018207183924499</v>
+        <v>1.050107819325444</v>
       </c>
       <c r="E11">
-        <v>1.01483288048749</v>
+        <v>1.057724740543874</v>
       </c>
       <c r="F11">
-        <v>1.018836672391176</v>
+        <v>1.067914372697491</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044159130636286</v>
+        <v>1.046202673924589</v>
       </c>
       <c r="J11">
-        <v>1.029945809054318</v>
+        <v>1.05735759090907</v>
       </c>
       <c r="K11">
-        <v>1.032793718133295</v>
+        <v>1.053623398862375</v>
       </c>
       <c r="L11">
-        <v>1.029480388675625</v>
+        <v>1.061213132154981</v>
       </c>
       <c r="M11">
-        <v>1.033411889764623</v>
+        <v>1.071367061249604</v>
       </c>
       <c r="N11">
-        <v>1.031408450239611</v>
+        <v>1.058859159968772</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9990242021279716</v>
+        <v>1.050618798293361</v>
       </c>
       <c r="D12">
-        <v>1.0170602090963</v>
+        <v>1.049896544710492</v>
       </c>
       <c r="E12">
-        <v>1.013481008475734</v>
+        <v>1.057467101338774</v>
       </c>
       <c r="F12">
-        <v>1.017321921328934</v>
+        <v>1.067621560660147</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043597015862688</v>
+        <v>1.046117313403069</v>
       </c>
       <c r="J12">
-        <v>1.028869916963115</v>
+        <v>1.057160352427253</v>
       </c>
       <c r="K12">
-        <v>1.031867702036575</v>
+        <v>1.053457177163651</v>
       </c>
       <c r="L12">
-        <v>1.02835441223733</v>
+        <v>1.061000335690727</v>
       </c>
       <c r="M12">
-        <v>1.032124618545012</v>
+        <v>1.071118718344695</v>
       </c>
       <c r="N12">
-        <v>1.030331030258232</v>
+        <v>1.058661641385687</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9993627757757849</v>
+        <v>1.050679436953902</v>
       </c>
       <c r="D13">
-        <v>1.017306928158165</v>
+        <v>1.049941864485766</v>
       </c>
       <c r="E13">
-        <v>1.0137717907051</v>
+        <v>1.057522363313211</v>
       </c>
       <c r="F13">
-        <v>1.017647733362703</v>
+        <v>1.067684365195801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043718018186358</v>
+        <v>1.046135633395743</v>
       </c>
       <c r="J13">
-        <v>1.029101408791386</v>
+        <v>1.057202665783806</v>
       </c>
       <c r="K13">
-        <v>1.032066953143592</v>
+        <v>1.053492838330969</v>
       </c>
       <c r="L13">
-        <v>1.028596652538542</v>
+        <v>1.061045983781097</v>
       </c>
       <c r="M13">
-        <v>1.032401538733696</v>
+        <v>1.071171988882058</v>
       </c>
       <c r="N13">
-        <v>1.030562850831451</v>
+        <v>1.05870401483206</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000468255609526</v>
+        <v>1.050878122118178</v>
       </c>
       <c r="D14">
-        <v>1.018112683856367</v>
+        <v>1.050090355594008</v>
       </c>
       <c r="E14">
-        <v>1.014721493755864</v>
+        <v>1.057703442874596</v>
       </c>
       <c r="F14">
-        <v>1.01871186312772</v>
+        <v>1.06789016667</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044112857680214</v>
+        <v>1.046195622446737</v>
       </c>
       <c r="J14">
-        <v>1.029857193802894</v>
+        <v>1.057341289382456</v>
       </c>
       <c r="K14">
-        <v>1.03271745051037</v>
+        <v>1.053609661651073</v>
       </c>
       <c r="L14">
-        <v>1.029387635754618</v>
+        <v>1.0611955434709</v>
       </c>
       <c r="M14">
-        <v>1.033305840756927</v>
+        <v>1.071346533210187</v>
       </c>
       <c r="N14">
-        <v>1.031319709144365</v>
+        <v>1.05884283529212</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001146434739656</v>
+        <v>1.051000537169133</v>
       </c>
       <c r="D15">
-        <v>1.018607135162505</v>
+        <v>1.050181843957583</v>
       </c>
       <c r="E15">
-        <v>1.015304311238309</v>
+        <v>1.057815019327778</v>
       </c>
       <c r="F15">
-        <v>1.019364916923224</v>
+        <v>1.068016981353602</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044354890593385</v>
+        <v>1.046232554780608</v>
       </c>
       <c r="J15">
-        <v>1.030320797621473</v>
+        <v>1.057426685230478</v>
       </c>
       <c r="K15">
-        <v>1.033116449404697</v>
+        <v>1.053681622649044</v>
       </c>
       <c r="L15">
-        <v>1.029872911450065</v>
+        <v>1.061287684744191</v>
       </c>
       <c r="M15">
-        <v>1.033860699264814</v>
+        <v>1.071454075330732</v>
       </c>
       <c r="N15">
-        <v>1.031783971333543</v>
+        <v>1.058928352412042</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005049899358807</v>
+        <v>1.051713024732245</v>
       </c>
       <c r="D16">
-        <v>1.021455198991618</v>
+        <v>1.050714316781592</v>
       </c>
       <c r="E16">
-        <v>1.018661898991147</v>
+        <v>1.058464555317237</v>
       </c>
       <c r="F16">
-        <v>1.023127369969573</v>
+        <v>1.068755305980042</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04574506927913</v>
+        <v>1.046447075848092</v>
       </c>
       <c r="J16">
-        <v>1.03298843384775</v>
+        <v>1.057923501584317</v>
       </c>
       <c r="K16">
-        <v>1.03541201228465</v>
+        <v>1.054100196719022</v>
       </c>
       <c r="L16">
-        <v>1.03266647534071</v>
+        <v>1.061823874427475</v>
       </c>
       <c r="M16">
-        <v>1.0370557516489</v>
+        <v>1.072080011396354</v>
       </c>
       <c r="N16">
-        <v>1.034455395909243</v>
+        <v>1.059425874302089</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007461002393995</v>
+        <v>1.05215993199135</v>
       </c>
       <c r="D17">
-        <v>1.023216155523519</v>
+        <v>1.051048297554914</v>
       </c>
       <c r="E17">
-        <v>1.020738391292077</v>
+        <v>1.058872091927422</v>
       </c>
       <c r="F17">
-        <v>1.025454476284261</v>
+        <v>1.069218621741498</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046601153485462</v>
+        <v>1.046581250985656</v>
       </c>
       <c r="J17">
-        <v>1.034635454083951</v>
+        <v>1.058234944235025</v>
       </c>
       <c r="K17">
-        <v>1.036829008562647</v>
+        <v>1.054362519666426</v>
       </c>
       <c r="L17">
-        <v>1.034392316278681</v>
+        <v>1.062160113592062</v>
       </c>
       <c r="M17">
-        <v>1.039030445899977</v>
+        <v>1.072472640276991</v>
       </c>
       <c r="N17">
-        <v>1.036104755103095</v>
+        <v>1.059737759237083</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00885431178326</v>
+        <v>1.052420599600075</v>
       </c>
       <c r="D18">
-        <v>1.02423436262806</v>
+        <v>1.051243093817007</v>
       </c>
       <c r="E18">
-        <v>1.021939236494373</v>
+        <v>1.059109837310618</v>
       </c>
       <c r="F18">
-        <v>1.02680034113731</v>
+        <v>1.069488932661341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047094904331364</v>
+        <v>1.046659373236428</v>
       </c>
       <c r="J18">
-        <v>1.035586937292903</v>
+        <v>1.05841653262386</v>
       </c>
       <c r="K18">
-        <v>1.03764749221575</v>
+        <v>1.054515442738323</v>
       </c>
       <c r="L18">
-        <v>1.035389719155349</v>
+        <v>1.062356200919507</v>
       </c>
       <c r="M18">
-        <v>1.040171963264597</v>
+        <v>1.072701652761124</v>
       </c>
       <c r="N18">
-        <v>1.03705758952734</v>
+        <v>1.059919605502259</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009327222138327</v>
+        <v>1.052509479568897</v>
       </c>
       <c r="D19">
-        <v>1.024580056211827</v>
+        <v>1.051309512775906</v>
       </c>
       <c r="E19">
-        <v>1.022346971517706</v>
+        <v>1.059190908496101</v>
       </c>
       <c r="F19">
-        <v>1.027257331783004</v>
+        <v>1.069581113035371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047262326891937</v>
+        <v>1.046685987194529</v>
       </c>
       <c r="J19">
-        <v>1.035909835100011</v>
+        <v>1.058478437575</v>
       </c>
       <c r="K19">
-        <v>1.037925234945992</v>
+        <v>1.054567571069821</v>
       </c>
       <c r="L19">
-        <v>1.035728265614124</v>
+        <v>1.06242305566365</v>
       </c>
       <c r="M19">
-        <v>1.040559476736149</v>
+        <v>1.072779739902537</v>
       </c>
       <c r="N19">
-        <v>1.037380945886372</v>
+        <v>1.05998159836553</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007203673061484</v>
+        <v>1.052111983684738</v>
       </c>
       <c r="D20">
-        <v>1.023028151315345</v>
+        <v>1.051012465518502</v>
       </c>
       <c r="E20">
-        <v>1.020516680094634</v>
+        <v>1.058828363368583</v>
       </c>
       <c r="F20">
-        <v>1.025205997514894</v>
+        <v>1.069168905454714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046509885214001</v>
+        <v>1.046566869729079</v>
       </c>
       <c r="J20">
-        <v>1.034459701900812</v>
+        <v>1.058201536717747</v>
       </c>
       <c r="K20">
-        <v>1.03667781383468</v>
+        <v>1.054334383739624</v>
       </c>
       <c r="L20">
-        <v>1.034208113219788</v>
+        <v>1.06212404196612</v>
       </c>
       <c r="M20">
-        <v>1.038819651422011</v>
+        <v>1.072430515053557</v>
       </c>
       <c r="N20">
-        <v>1.035928753331697</v>
+        <v>1.059704304277299</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000143335270441</v>
+        <v>1.050819614590959</v>
       </c>
       <c r="D21">
-        <v>1.017875827536262</v>
+        <v>1.050046629061752</v>
       </c>
       <c r="E21">
-        <v>1.014442316504016</v>
+        <v>1.057650117925066</v>
       </c>
       <c r="F21">
-        <v>1.018399045712478</v>
+        <v>1.067829560433053</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043996846710419</v>
+        <v>1.046177963187511</v>
       </c>
       <c r="J21">
-        <v>1.029635064917561</v>
+        <v>1.057300471256702</v>
       </c>
       <c r="K21">
-        <v>1.032526270472054</v>
+        <v>1.053575263784181</v>
       </c>
       <c r="L21">
-        <v>1.029155145016701</v>
+        <v>1.061151503410047</v>
       </c>
       <c r="M21">
-        <v>1.03304002999722</v>
+        <v>1.071295134340785</v>
       </c>
       <c r="N21">
-        <v>1.031097264810537</v>
+        <v>1.058801959199946</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9955768403335727</v>
+        <v>1.050006989209069</v>
       </c>
       <c r="D22">
-        <v>1.01454969269028</v>
+        <v>1.049439286164576</v>
       </c>
       <c r="E22">
-        <v>1.010522441979736</v>
+        <v>1.05690963004493</v>
       </c>
       <c r="F22">
-        <v>1.014007080363068</v>
+        <v>1.066988055709992</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042363023254608</v>
+        <v>1.045932180569582</v>
       </c>
       <c r="J22">
-        <v>1.026512405375091</v>
+        <v>1.056733293158569</v>
       </c>
       <c r="K22">
-        <v>1.029838324564843</v>
+        <v>1.053097202213652</v>
       </c>
       <c r="L22">
-        <v>1.025888290097583</v>
+        <v>1.060539707745618</v>
       </c>
       <c r="M22">
-        <v>1.0293060692006</v>
+        <v>1.070581258537957</v>
       </c>
       <c r="N22">
-        <v>1.027970170733342</v>
+        <v>1.058233975643856</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9980102035469087</v>
+        <v>1.050437783582004</v>
       </c>
       <c r="D23">
-        <v>1.016321472144465</v>
+        <v>1.04976125808111</v>
       </c>
       <c r="E23">
-        <v>1.012610370553857</v>
+        <v>1.057302146376772</v>
       </c>
       <c r="F23">
-        <v>1.016346414904427</v>
+        <v>1.067434097211406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043234416503692</v>
+        <v>1.046062594264224</v>
       </c>
       <c r="J23">
-        <v>1.028176568833932</v>
+        <v>1.057034026107114</v>
       </c>
       <c r="K23">
-        <v>1.03127089682774</v>
+        <v>1.053350705077342</v>
       </c>
       <c r="L23">
-        <v>1.027628961355912</v>
+        <v>1.060864062933611</v>
       </c>
       <c r="M23">
-        <v>1.031295376942387</v>
+        <v>1.070959699459756</v>
       </c>
       <c r="N23">
-        <v>1.029636697495177</v>
+        <v>1.058535135667684</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007319989323171</v>
+        <v>1.052133649478216</v>
       </c>
       <c r="D24">
-        <v>1.023113129852562</v>
+        <v>1.051028656501251</v>
       </c>
       <c r="E24">
-        <v>1.02061689370834</v>
+        <v>1.058848122310029</v>
       </c>
       <c r="F24">
-        <v>1.025318309813667</v>
+        <v>1.069191369898373</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046551142651515</v>
+        <v>1.046573368431843</v>
       </c>
       <c r="J24">
-        <v>1.034539145097958</v>
+        <v>1.058216632355438</v>
       </c>
       <c r="K24">
-        <v>1.03674615697101</v>
+        <v>1.054347097417734</v>
       </c>
       <c r="L24">
-        <v>1.034291375172845</v>
+        <v>1.062140341289993</v>
       </c>
       <c r="M24">
-        <v>1.038914932089453</v>
+        <v>1.072449549632502</v>
       </c>
       <c r="N24">
-        <v>1.036008309347296</v>
+        <v>1.059719421352527</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01761569978281</v>
+        <v>1.054101383185564</v>
       </c>
       <c r="D25">
-        <v>1.030646752934631</v>
+        <v>1.052499046567483</v>
       </c>
       <c r="E25">
-        <v>1.029505583832875</v>
+        <v>1.060643562354657</v>
       </c>
       <c r="F25">
-        <v>1.035282206987081</v>
+        <v>1.071233205577182</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050182190753673</v>
+        <v>1.047160608813327</v>
       </c>
       <c r="J25">
-        <v>1.041564428579169</v>
+        <v>1.059586204292339</v>
       </c>
       <c r="K25">
-        <v>1.042787241736464</v>
+        <v>1.055500003990531</v>
       </c>
       <c r="L25">
-        <v>1.041662501266955</v>
+        <v>1.063620009047033</v>
       </c>
       <c r="M25">
-        <v>1.047356433335501</v>
+        <v>1.074178389454225</v>
       </c>
       <c r="N25">
-        <v>1.043043569536861</v>
+        <v>1.061090938238671</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055670709443425</v>
+        <v>1.025463726331718</v>
       </c>
       <c r="D2">
-        <v>1.053671546631413</v>
+        <v>1.036404143816217</v>
       </c>
       <c r="E2">
-        <v>1.06207676806106</v>
+        <v>1.036305804555769</v>
       </c>
       <c r="F2">
-        <v>1.072863911865431</v>
+        <v>1.04290850306326</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0476245766062</v>
+        <v>1.052918594879068</v>
       </c>
       <c r="J2">
-        <v>1.060676354262662</v>
+        <v>1.046908609937937</v>
       </c>
       <c r="K2">
-        <v>1.05641687090043</v>
+        <v>1.047378579739443</v>
       </c>
       <c r="L2">
-        <v>1.06479909520496</v>
+        <v>1.047281493002095</v>
       </c>
       <c r="M2">
-        <v>1.07555729577011</v>
+        <v>1.053800748626582</v>
       </c>
       <c r="N2">
-        <v>1.062182636346994</v>
+        <v>1.048395340246144</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05681012801359</v>
+        <v>1.030971140074733</v>
       </c>
       <c r="D3">
-        <v>1.0545227286044</v>
+        <v>1.040451495910601</v>
       </c>
       <c r="E3">
-        <v>1.063118091947854</v>
+        <v>1.041091027180342</v>
       </c>
       <c r="F3">
-        <v>1.074049210258996</v>
+        <v>1.048277375609664</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047958903585364</v>
+        <v>1.054819856184345</v>
       </c>
       <c r="J3">
-        <v>1.061466626218856</v>
+        <v>1.050651687966153</v>
       </c>
       <c r="K3">
-        <v>1.057081046380133</v>
+        <v>1.050591687902553</v>
       </c>
       <c r="L3">
-        <v>1.065654594519054</v>
+        <v>1.051223809951743</v>
       </c>
       <c r="M3">
-        <v>1.076558512336093</v>
+        <v>1.058327668447776</v>
       </c>
       <c r="N3">
-        <v>1.062974030580011</v>
+        <v>1.052143733874498</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057547392649818</v>
+        <v>1.034452419997739</v>
       </c>
       <c r="D4">
-        <v>1.055073429135326</v>
+        <v>1.043012671558095</v>
       </c>
       <c r="E4">
-        <v>1.063792221206312</v>
+        <v>1.044121522581532</v>
       </c>
       <c r="F4">
-        <v>1.07481676695667</v>
+        <v>1.051678688597867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048174054921558</v>
+        <v>1.05601257836308</v>
       </c>
       <c r="J4">
-        <v>1.061977399666062</v>
+        <v>1.053014081023245</v>
       </c>
       <c r="K4">
-        <v>1.057510097111296</v>
+        <v>1.052618273296361</v>
       </c>
       <c r="L4">
-        <v>1.066207876002596</v>
+        <v>1.05371507854616</v>
       </c>
       <c r="M4">
-        <v>1.077206375205758</v>
+        <v>1.061190977288438</v>
       </c>
       <c r="N4">
-        <v>1.063485529384098</v>
+        <v>1.054509481800701</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057857335932132</v>
+        <v>1.035897051988107</v>
       </c>
       <c r="D5">
-        <v>1.055304926578874</v>
+        <v>1.044076097640888</v>
       </c>
       <c r="E5">
-        <v>1.064075702780553</v>
+        <v>1.045380415477498</v>
       </c>
       <c r="F5">
-        <v>1.075139589414438</v>
+        <v>1.053091922413125</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048264222023593</v>
+        <v>1.056505305399418</v>
       </c>
       <c r="J5">
-        <v>1.062191989027066</v>
+        <v>1.053993493661539</v>
       </c>
       <c r="K5">
-        <v>1.057690298979042</v>
+        <v>1.053458134827818</v>
       </c>
       <c r="L5">
-        <v>1.066440407920984</v>
+        <v>1.054748672619926</v>
       </c>
       <c r="M5">
-        <v>1.077478739296345</v>
+        <v>1.062379559426911</v>
       </c>
       <c r="N5">
-        <v>1.063700423486609</v>
+        <v>1.055490285317282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05790937663708</v>
+        <v>1.03613852693772</v>
       </c>
       <c r="D6">
-        <v>1.055343795016952</v>
+        <v>1.044253886913391</v>
       </c>
       <c r="E6">
-        <v>1.064123305145215</v>
+        <v>1.04559091999256</v>
       </c>
       <c r="F6">
-        <v>1.075193801045675</v>
+        <v>1.053328252954864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048279344912993</v>
+        <v>1.056587534745467</v>
       </c>
       <c r="J6">
-        <v>1.062228011337181</v>
+        <v>1.054157150835182</v>
       </c>
       <c r="K6">
-        <v>1.057720545639356</v>
+        <v>1.053598453612229</v>
       </c>
       <c r="L6">
-        <v>1.066479447097504</v>
+        <v>1.054921427590274</v>
       </c>
       <c r="M6">
-        <v>1.077524470587224</v>
+        <v>1.062578256558558</v>
       </c>
       <c r="N6">
-        <v>1.063736496952536</v>
+        <v>1.055654174902884</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057551534136863</v>
+        <v>1.034471796441859</v>
       </c>
       <c r="D7">
-        <v>1.05507652248257</v>
+        <v>1.043026932660489</v>
       </c>
       <c r="E7">
-        <v>1.063796008795565</v>
+        <v>1.044138402589478</v>
       </c>
       <c r="F7">
-        <v>1.074821079969007</v>
+        <v>1.051697636898453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048175260848752</v>
+        <v>1.056019195994214</v>
       </c>
       <c r="J7">
-        <v>1.061980267568482</v>
+        <v>1.05302722127254</v>
       </c>
       <c r="K7">
-        <v>1.057512505649412</v>
+        <v>1.052629542586361</v>
       </c>
       <c r="L7">
-        <v>1.066210983370756</v>
+        <v>1.053728942745141</v>
       </c>
       <c r="M7">
-        <v>1.077210014537538</v>
+        <v>1.061206917919218</v>
       </c>
       <c r="N7">
-        <v>1.063488401359269</v>
+        <v>1.054522640710658</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0560557850124</v>
+        <v>1.027342553707335</v>
       </c>
       <c r="D8">
-        <v>1.053959222271627</v>
+        <v>1.037784247546546</v>
       </c>
       <c r="E8">
-        <v>1.062428621624176</v>
+        <v>1.037937028131703</v>
       </c>
       <c r="F8">
-        <v>1.073264367287067</v>
+        <v>1.044738445040677</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047737808487387</v>
+        <v>1.053569083721083</v>
       </c>
       <c r="J8">
-        <v>1.06094355177491</v>
+        <v>1.048186281305633</v>
       </c>
       <c r="K8">
-        <v>1.056641480302886</v>
+        <v>1.04847562064991</v>
       </c>
       <c r="L8">
-        <v>1.065088274154106</v>
+        <v>1.04862651550412</v>
       </c>
       <c r="M8">
-        <v>1.075895660033947</v>
+        <v>1.055344678625334</v>
       </c>
       <c r="N8">
-        <v>1.062450213310357</v>
+        <v>1.049674826053734</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.053419925312523</v>
+        <v>1.01410914870788</v>
       </c>
       <c r="D9">
-        <v>1.051989852738183</v>
+        <v>1.028078362258981</v>
       </c>
       <c r="E9">
-        <v>1.060021571647389</v>
+        <v>1.026474154382685</v>
       </c>
       <c r="F9">
-        <v>1.07052573076899</v>
+        <v>1.03188357933222</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046957914514068</v>
+        <v>1.048950366179571</v>
       </c>
       <c r="J9">
-        <v>1.059112227481842</v>
+        <v>1.0391733288772</v>
       </c>
       <c r="K9">
-        <v>1.055101136901373</v>
+        <v>1.040731740581477</v>
       </c>
       <c r="L9">
-        <v>1.063107728976575</v>
+        <v>1.039151828325513</v>
       </c>
       <c r="M9">
-        <v>1.073579647139985</v>
+        <v>1.044479712333608</v>
       </c>
       <c r="N9">
-        <v>1.060616288326736</v>
+        <v>1.040649074199053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051662519091652</v>
+        <v>1.004775624569499</v>
       </c>
       <c r="D10">
-        <v>1.050676572508103</v>
+        <v>1.02125496572942</v>
       </c>
       <c r="E10">
-        <v>1.058418504639545</v>
+        <v>1.01842581228891</v>
       </c>
       <c r="F10">
-        <v>1.068702955842046</v>
+        <v>1.022862801268375</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046431893839411</v>
+        <v>1.045647556300079</v>
       </c>
       <c r="J10">
-        <v>1.057888295968443</v>
+        <v>1.032801039914677</v>
       </c>
       <c r="K10">
-        <v>1.054070540128501</v>
+        <v>1.035250774660741</v>
       </c>
       <c r="L10">
-        <v>1.061785871377693</v>
+        <v>1.032470166003075</v>
       </c>
       <c r="M10">
-        <v>1.072035640361584</v>
+        <v>1.03683117626896</v>
       </c>
       <c r="N10">
-        <v>1.059390618690201</v>
+        <v>1.034267735855291</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.05090148921532</v>
+        <v>1.000597881517487</v>
       </c>
       <c r="D11">
-        <v>1.050107819325444</v>
+        <v>1.018207183924499</v>
       </c>
       <c r="E11">
-        <v>1.057724740543874</v>
+        <v>1.01483288048749</v>
       </c>
       <c r="F11">
-        <v>1.067914372697491</v>
+        <v>1.018836672391176</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046202673924589</v>
+        <v>1.044159130636287</v>
       </c>
       <c r="J11">
-        <v>1.05735759090907</v>
+        <v>1.029945809054319</v>
       </c>
       <c r="K11">
-        <v>1.053623398862375</v>
+        <v>1.032793718133295</v>
       </c>
       <c r="L11">
-        <v>1.061213132154981</v>
+        <v>1.029480388675625</v>
       </c>
       <c r="M11">
-        <v>1.071367061249604</v>
+        <v>1.033411889764623</v>
       </c>
       <c r="N11">
-        <v>1.058859159968772</v>
+        <v>1.031408450239611</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050618798293361</v>
+        <v>0.9990242021279736</v>
       </c>
       <c r="D12">
-        <v>1.049896544710492</v>
+        <v>1.017060209096301</v>
       </c>
       <c r="E12">
-        <v>1.057467101338774</v>
+        <v>1.013481008475735</v>
       </c>
       <c r="F12">
-        <v>1.067621560660147</v>
+        <v>1.017321921328936</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046117313403069</v>
+        <v>1.043597015862689</v>
       </c>
       <c r="J12">
-        <v>1.057160352427253</v>
+        <v>1.028869916963117</v>
       </c>
       <c r="K12">
-        <v>1.053457177163651</v>
+        <v>1.031867702036577</v>
       </c>
       <c r="L12">
-        <v>1.061000335690727</v>
+        <v>1.028354412237331</v>
       </c>
       <c r="M12">
-        <v>1.071118718344695</v>
+        <v>1.032124618545014</v>
       </c>
       <c r="N12">
-        <v>1.058661641385687</v>
+        <v>1.030331030258234</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050679436953902</v>
+        <v>0.9993627757757845</v>
       </c>
       <c r="D13">
-        <v>1.049941864485766</v>
+        <v>1.017306928158165</v>
       </c>
       <c r="E13">
-        <v>1.057522363313211</v>
+        <v>1.0137717907051</v>
       </c>
       <c r="F13">
-        <v>1.067684365195801</v>
+        <v>1.017647733362702</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046135633395743</v>
+        <v>1.043718018186358</v>
       </c>
       <c r="J13">
-        <v>1.057202665783806</v>
+        <v>1.029101408791385</v>
       </c>
       <c r="K13">
-        <v>1.053492838330969</v>
+        <v>1.032066953143592</v>
       </c>
       <c r="L13">
-        <v>1.061045983781097</v>
+        <v>1.028596652538542</v>
       </c>
       <c r="M13">
-        <v>1.071171988882058</v>
+        <v>1.032401538733696</v>
       </c>
       <c r="N13">
-        <v>1.05870401483206</v>
+        <v>1.030562850831451</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050878122118178</v>
+        <v>1.000468255609524</v>
       </c>
       <c r="D14">
-        <v>1.050090355594008</v>
+        <v>1.018112683856365</v>
       </c>
       <c r="E14">
-        <v>1.057703442874596</v>
+        <v>1.014721493755862</v>
       </c>
       <c r="F14">
-        <v>1.06789016667</v>
+        <v>1.018711863127718</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046195622446737</v>
+        <v>1.044112857680213</v>
       </c>
       <c r="J14">
-        <v>1.057341289382456</v>
+        <v>1.029857193802892</v>
       </c>
       <c r="K14">
-        <v>1.053609661651073</v>
+        <v>1.032717450510368</v>
       </c>
       <c r="L14">
-        <v>1.0611955434709</v>
+        <v>1.029387635754616</v>
       </c>
       <c r="M14">
-        <v>1.071346533210187</v>
+        <v>1.033305840756925</v>
       </c>
       <c r="N14">
-        <v>1.05884283529212</v>
+        <v>1.031319709144364</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.051000537169133</v>
+        <v>1.001146434739656</v>
       </c>
       <c r="D15">
-        <v>1.050181843957583</v>
+        <v>1.018607135162505</v>
       </c>
       <c r="E15">
-        <v>1.057815019327778</v>
+        <v>1.015304311238309</v>
       </c>
       <c r="F15">
-        <v>1.068016981353602</v>
+        <v>1.019364916923224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046232554780608</v>
+        <v>1.044354890593385</v>
       </c>
       <c r="J15">
-        <v>1.057426685230478</v>
+        <v>1.030320797621473</v>
       </c>
       <c r="K15">
-        <v>1.053681622649044</v>
+        <v>1.033116449404697</v>
       </c>
       <c r="L15">
-        <v>1.061287684744191</v>
+        <v>1.029872911450065</v>
       </c>
       <c r="M15">
-        <v>1.071454075330732</v>
+        <v>1.033860699264814</v>
       </c>
       <c r="N15">
-        <v>1.058928352412042</v>
+        <v>1.031783971333542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051713024732245</v>
+        <v>1.005049899358806</v>
       </c>
       <c r="D16">
-        <v>1.050714316781592</v>
+        <v>1.021455198991617</v>
       </c>
       <c r="E16">
-        <v>1.058464555317237</v>
+        <v>1.018661898991145</v>
       </c>
       <c r="F16">
-        <v>1.068755305980042</v>
+        <v>1.023127369969571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046447075848092</v>
+        <v>1.045745069279129</v>
       </c>
       <c r="J16">
-        <v>1.057923501584317</v>
+        <v>1.032988433847749</v>
       </c>
       <c r="K16">
-        <v>1.054100196719022</v>
+        <v>1.035412012284649</v>
       </c>
       <c r="L16">
-        <v>1.061823874427475</v>
+        <v>1.032666475340709</v>
       </c>
       <c r="M16">
-        <v>1.072080011396354</v>
+        <v>1.037055751648899</v>
       </c>
       <c r="N16">
-        <v>1.059425874302089</v>
+        <v>1.034455395909242</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05215993199135</v>
+        <v>1.007461002393996</v>
       </c>
       <c r="D17">
-        <v>1.051048297554914</v>
+        <v>1.02321615552352</v>
       </c>
       <c r="E17">
-        <v>1.058872091927422</v>
+        <v>1.020738391292078</v>
       </c>
       <c r="F17">
-        <v>1.069218621741498</v>
+        <v>1.02545447628426</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046581250985656</v>
+        <v>1.046601153485462</v>
       </c>
       <c r="J17">
-        <v>1.058234944235025</v>
+        <v>1.034635454083951</v>
       </c>
       <c r="K17">
-        <v>1.054362519666426</v>
+        <v>1.036829008562648</v>
       </c>
       <c r="L17">
-        <v>1.062160113592062</v>
+        <v>1.034392316278681</v>
       </c>
       <c r="M17">
-        <v>1.072472640276991</v>
+        <v>1.039030445899977</v>
       </c>
       <c r="N17">
-        <v>1.059737759237083</v>
+        <v>1.036104755103095</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052420599600075</v>
+        <v>1.00885431178326</v>
       </c>
       <c r="D18">
-        <v>1.051243093817007</v>
+        <v>1.024234362628059</v>
       </c>
       <c r="E18">
-        <v>1.059109837310618</v>
+        <v>1.021939236494372</v>
       </c>
       <c r="F18">
-        <v>1.069488932661341</v>
+        <v>1.026800341137309</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046659373236428</v>
+        <v>1.047094904331363</v>
       </c>
       <c r="J18">
-        <v>1.05841653262386</v>
+        <v>1.035586937292902</v>
       </c>
       <c r="K18">
-        <v>1.054515442738323</v>
+        <v>1.03764749221575</v>
       </c>
       <c r="L18">
-        <v>1.062356200919507</v>
+        <v>1.035389719155348</v>
       </c>
       <c r="M18">
-        <v>1.072701652761124</v>
+        <v>1.040171963264597</v>
       </c>
       <c r="N18">
-        <v>1.059919605502259</v>
+        <v>1.03705758952734</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052509479568897</v>
+        <v>1.009327222138326</v>
       </c>
       <c r="D19">
-        <v>1.051309512775906</v>
+        <v>1.024580056211826</v>
       </c>
       <c r="E19">
-        <v>1.059190908496101</v>
+        <v>1.022346971517705</v>
       </c>
       <c r="F19">
-        <v>1.069581113035371</v>
+        <v>1.027257331783002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046685987194529</v>
+        <v>1.047262326891936</v>
       </c>
       <c r="J19">
-        <v>1.058478437575</v>
+        <v>1.03590983510001</v>
       </c>
       <c r="K19">
-        <v>1.054567571069821</v>
+        <v>1.037925234945991</v>
       </c>
       <c r="L19">
-        <v>1.06242305566365</v>
+        <v>1.035728265614124</v>
       </c>
       <c r="M19">
-        <v>1.072779739902537</v>
+        <v>1.040559476736147</v>
       </c>
       <c r="N19">
-        <v>1.05998159836553</v>
+        <v>1.03738094588637</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052111983684738</v>
+        <v>1.007203673061483</v>
       </c>
       <c r="D20">
-        <v>1.051012465518502</v>
+        <v>1.023028151315344</v>
       </c>
       <c r="E20">
-        <v>1.058828363368583</v>
+        <v>1.020516680094633</v>
       </c>
       <c r="F20">
-        <v>1.069168905454714</v>
+        <v>1.025205997514893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046566869729079</v>
+        <v>1.046509885214</v>
       </c>
       <c r="J20">
-        <v>1.058201536717747</v>
+        <v>1.034459701900811</v>
       </c>
       <c r="K20">
-        <v>1.054334383739624</v>
+        <v>1.036677813834679</v>
       </c>
       <c r="L20">
-        <v>1.06212404196612</v>
+        <v>1.034208113219787</v>
       </c>
       <c r="M20">
-        <v>1.072430515053557</v>
+        <v>1.03881965142201</v>
       </c>
       <c r="N20">
-        <v>1.059704304277299</v>
+        <v>1.035928753331697</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050819614590959</v>
+        <v>1.000143335270441</v>
       </c>
       <c r="D21">
-        <v>1.050046629061752</v>
+        <v>1.017875827536262</v>
       </c>
       <c r="E21">
-        <v>1.057650117925066</v>
+        <v>1.014442316504016</v>
       </c>
       <c r="F21">
-        <v>1.067829560433053</v>
+        <v>1.018399045712479</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046177963187511</v>
+        <v>1.043996846710419</v>
       </c>
       <c r="J21">
-        <v>1.057300471256702</v>
+        <v>1.029635064917561</v>
       </c>
       <c r="K21">
-        <v>1.053575263784181</v>
+        <v>1.032526270472054</v>
       </c>
       <c r="L21">
-        <v>1.061151503410047</v>
+        <v>1.029155145016702</v>
       </c>
       <c r="M21">
-        <v>1.071295134340785</v>
+        <v>1.03304002999722</v>
       </c>
       <c r="N21">
-        <v>1.058801959199946</v>
+        <v>1.031097264810537</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.050006989209069</v>
+        <v>0.9955768403335726</v>
       </c>
       <c r="D22">
-        <v>1.049439286164576</v>
+        <v>1.01454969269028</v>
       </c>
       <c r="E22">
-        <v>1.05690963004493</v>
+        <v>1.010522441979736</v>
       </c>
       <c r="F22">
-        <v>1.066988055709992</v>
+        <v>1.014007080363068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045932180569582</v>
+        <v>1.042363023254608</v>
       </c>
       <c r="J22">
-        <v>1.056733293158569</v>
+        <v>1.026512405375091</v>
       </c>
       <c r="K22">
-        <v>1.053097202213652</v>
+        <v>1.029838324564843</v>
       </c>
       <c r="L22">
-        <v>1.060539707745618</v>
+        <v>1.025888290097583</v>
       </c>
       <c r="M22">
-        <v>1.070581258537957</v>
+        <v>1.029306069200599</v>
       </c>
       <c r="N22">
-        <v>1.058233975643856</v>
+        <v>1.027970170733342</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050437783582004</v>
+        <v>0.9980102035469081</v>
       </c>
       <c r="D23">
-        <v>1.04976125808111</v>
+        <v>1.016321472144465</v>
       </c>
       <c r="E23">
-        <v>1.057302146376772</v>
+        <v>1.012610370553856</v>
       </c>
       <c r="F23">
-        <v>1.067434097211406</v>
+        <v>1.016346414904425</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046062594264224</v>
+        <v>1.043234416503692</v>
       </c>
       <c r="J23">
-        <v>1.057034026107114</v>
+        <v>1.028176568833932</v>
       </c>
       <c r="K23">
-        <v>1.053350705077342</v>
+        <v>1.03127089682774</v>
       </c>
       <c r="L23">
-        <v>1.060864062933611</v>
+        <v>1.027628961355911</v>
       </c>
       <c r="M23">
-        <v>1.070959699459756</v>
+        <v>1.031295376942386</v>
       </c>
       <c r="N23">
-        <v>1.058535135667684</v>
+        <v>1.029636697495177</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052133649478216</v>
+        <v>1.007319989323171</v>
       </c>
       <c r="D24">
-        <v>1.051028656501251</v>
+        <v>1.023113129852562</v>
       </c>
       <c r="E24">
-        <v>1.058848122310029</v>
+        <v>1.020616893708339</v>
       </c>
       <c r="F24">
-        <v>1.069191369898373</v>
+        <v>1.025318309813667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046573368431843</v>
+        <v>1.046551142651515</v>
       </c>
       <c r="J24">
-        <v>1.058216632355438</v>
+        <v>1.034539145097958</v>
       </c>
       <c r="K24">
-        <v>1.054347097417734</v>
+        <v>1.03674615697101</v>
       </c>
       <c r="L24">
-        <v>1.062140341289993</v>
+        <v>1.034291375172844</v>
       </c>
       <c r="M24">
-        <v>1.072449549632502</v>
+        <v>1.038914932089452</v>
       </c>
       <c r="N24">
-        <v>1.059719421352527</v>
+        <v>1.036008309347296</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.054101383185564</v>
+        <v>1.017615699782811</v>
       </c>
       <c r="D25">
-        <v>1.052499046567483</v>
+        <v>1.030646752934631</v>
       </c>
       <c r="E25">
-        <v>1.060643562354657</v>
+        <v>1.029505583832875</v>
       </c>
       <c r="F25">
-        <v>1.071233205577182</v>
+        <v>1.035282206987082</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047160608813327</v>
+        <v>1.050182190753673</v>
       </c>
       <c r="J25">
-        <v>1.059586204292339</v>
+        <v>1.041564428579169</v>
       </c>
       <c r="K25">
-        <v>1.055500003990531</v>
+        <v>1.042787241736465</v>
       </c>
       <c r="L25">
-        <v>1.063620009047033</v>
+        <v>1.041662501266956</v>
       </c>
       <c r="M25">
-        <v>1.074178389454225</v>
+        <v>1.047356433335501</v>
       </c>
       <c r="N25">
-        <v>1.061090938238671</v>
+        <v>1.043043569536862</v>
       </c>
     </row>
   </sheetData>
